--- a/data/long_bre/P23_4-Urba-long_bre.xlsx
+++ b/data/long_bre/P23_4-Urba-long_bre.xlsx
@@ -37,7 +37,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="11">
+  <borders count="12">
     <border>
       <left/>
       <right/>
@@ -63,6 +63,13 @@
       <right style="thin"/>
       <top style="thin"/>
       <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin"/>
+      <bottom style="thin"/>
       <diagonal/>
     </border>
     <border>
@@ -497,7 +504,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F27"/>
+  <dimension ref="A1:H36"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
@@ -514,6 +521,8 @@
     <col width="14" customWidth="1" min="4" max="4"/>
     <col width="14" customWidth="1" min="5" max="5"/>
     <col width="14" customWidth="1" min="6" max="6"/>
+    <col width="14" customWidth="1" min="7" max="7"/>
+    <col width="14" customWidth="1" min="8" max="8"/>
   </cols>
   <sheetData>
     <row r="1">
@@ -529,12 +538,14 @@
         </is>
       </c>
       <c r="D1" s="3" t="n"/>
-      <c r="E1" s="3" t="inlineStr">
+      <c r="E1" s="3" t="n"/>
+      <c r="F1" s="3" t="inlineStr">
         <is>
           <t>Brecha de género relativa</t>
         </is>
       </c>
-      <c r="F1" s="3" t="n"/>
+      <c r="G1" s="3" t="n"/>
+      <c r="H1" s="3" t="n"/>
     </row>
     <row r="2">
       <c r="A2" s="4" t="n"/>
@@ -551,12 +562,22 @@
       </c>
       <c r="E2" s="3" t="inlineStr">
         <is>
+          <t>M5-M4</t>
+        </is>
+      </c>
+      <c r="F2" s="3" t="inlineStr">
+        <is>
           <t>M3-M2</t>
         </is>
       </c>
-      <c r="F2" s="3" t="inlineStr">
+      <c r="G2" s="3" t="inlineStr">
         <is>
           <t>M4-M3</t>
+        </is>
+      </c>
+      <c r="H2" s="3" t="inlineStr">
+        <is>
+          <t>M5-M4</t>
         </is>
       </c>
     </row>
@@ -567,6 +588,8 @@
       <c r="D3" s="2" t="n"/>
       <c r="E3" s="2" t="n"/>
       <c r="F3" s="2" t="n"/>
+      <c r="G3" s="2" t="n"/>
+      <c r="H3" s="2" t="n"/>
     </row>
     <row r="4">
       <c r="A4" s="1" t="inlineStr">
@@ -576,27 +599,37 @@
       </c>
       <c r="B4" s="3" t="inlineStr">
         <is>
-          <t>Más</t>
+          <t>Más diferencia negativa</t>
         </is>
       </c>
       <c r="C4" s="2" t="inlineStr">
         <is>
-          <t>-6,82</t>
+          <t>-6,92</t>
         </is>
       </c>
       <c r="D4" s="2" t="inlineStr">
         <is>
-          <t>-3,55</t>
+          <t>-4,17</t>
         </is>
       </c>
       <c r="E4" s="2" t="inlineStr">
         <is>
-          <t>-28,22%</t>
+          <t>4,09</t>
         </is>
       </c>
       <c r="F4" s="2" t="inlineStr">
         <is>
-          <t>-23,75%</t>
+          <t>-28,74%</t>
+        </is>
+      </c>
+      <c r="G4" s="2" t="inlineStr">
+        <is>
+          <t>-26,95%</t>
+        </is>
+      </c>
+      <c r="H4" s="2" t="inlineStr">
+        <is>
+          <t>31,84%</t>
         </is>
       </c>
     </row>
@@ -609,22 +642,32 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>-14,55; -0,83</t>
+          <t>-14,75; -1,14</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>-7,98; 0,2</t>
+          <t>-8,5; -0,2</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>-47,87; -2,83</t>
+          <t>-0,87; 9,82</t>
         </is>
       </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
-          <t>-45,15; 0,62</t>
+          <t>-49,68; -4,78</t>
+        </is>
+      </c>
+      <c r="G5" s="2" t="inlineStr">
+        <is>
+          <t>-45,16; 0,16</t>
+        </is>
+      </c>
+      <c r="H5" s="2" t="inlineStr">
+        <is>
+          <t>-6,95; 96,8</t>
         </is>
       </c>
     </row>
@@ -632,27 +675,37 @@
       <c r="A6" s="1" t="n"/>
       <c r="B6" s="3" t="inlineStr">
         <is>
-          <t>Igual</t>
+          <t>Igual diferencia Cero</t>
         </is>
       </c>
       <c r="C6" s="2" t="inlineStr">
         <is>
-          <t>9,98</t>
+          <t>11,66</t>
         </is>
       </c>
       <c r="D6" s="2" t="inlineStr">
         <is>
-          <t>-0,49</t>
+          <t>0,87</t>
         </is>
       </c>
       <c r="E6" s="2" t="inlineStr">
         <is>
-          <t>16,89%</t>
+          <t>-1,3</t>
         </is>
       </c>
       <c r="F6" s="2" t="inlineStr">
         <is>
-          <t>-0,71%</t>
+          <t>20,05%</t>
+        </is>
+      </c>
+      <c r="G6" s="2" t="inlineStr">
+        <is>
+          <t>1,26%</t>
+        </is>
+      </c>
+      <c r="H6" s="2" t="inlineStr">
+        <is>
+          <t>-1,94%</t>
         </is>
       </c>
     </row>
@@ -665,22 +718,32 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>3,01; 17,86</t>
+          <t>4,0; 19,1</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>-6,34; 7,73</t>
+          <t>-5,23; 7,9</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>4,65; 32,94</t>
+          <t>-9,45; 6,25</t>
         </is>
       </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
-          <t>-8,76; 11,93</t>
+          <t>6,78; 36,2</t>
+        </is>
+      </c>
+      <c r="G7" s="2" t="inlineStr">
+        <is>
+          <t>-7,21; 12,42</t>
+        </is>
+      </c>
+      <c r="H7" s="2" t="inlineStr">
+        <is>
+          <t>-13,04; 9,96</t>
         </is>
       </c>
     </row>
@@ -688,27 +751,37 @@
       <c r="A8" s="1" t="n"/>
       <c r="B8" s="3" t="inlineStr">
         <is>
-          <t>Menos</t>
+          <t>Menos Diferencia Positiva</t>
         </is>
       </c>
       <c r="C8" s="2" t="inlineStr">
         <is>
-          <t>-3,17</t>
+          <t>-4,74</t>
         </is>
       </c>
       <c r="D8" s="2" t="inlineStr">
         <is>
-          <t>4,04</t>
+          <t>3,3</t>
         </is>
       </c>
       <c r="E8" s="2" t="inlineStr">
         <is>
-          <t>-18,89%</t>
+          <t>-2,79</t>
         </is>
       </c>
       <c r="F8" s="2" t="inlineStr">
         <is>
-          <t>25,73%</t>
+          <t>-26,68%</t>
+        </is>
+      </c>
+      <c r="G8" s="2" t="inlineStr">
+        <is>
+          <t>20,93%</t>
+        </is>
+      </c>
+      <c r="H8" s="2" t="inlineStr">
+        <is>
+          <t>-13,78%</t>
         </is>
       </c>
     </row>
@@ -721,54 +794,70 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>-8,91; 1,61</t>
+          <t>-11,53; 0,96</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>-4,33; 9,21</t>
+          <t>-4,42; 8,4</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>-43,31; 11,74</t>
+          <t>-8,87; 3,43</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>-21,95; 70,59</t>
+          <t>-49,58; 7,83</t>
+        </is>
+      </c>
+      <c r="G9" s="2" t="inlineStr">
+        <is>
+          <t>-23,02; 66,15</t>
+        </is>
+      </c>
+      <c r="H9" s="2" t="inlineStr">
+        <is>
+          <t>-38,04; 20,54</t>
         </is>
       </c>
     </row>
     <row r="10">
-      <c r="A10" s="1" t="inlineStr">
-        <is>
-          <t>Intermedio</t>
-        </is>
-      </c>
+      <c r="A10" s="1" t="n"/>
       <c r="B10" s="3" t="inlineStr">
         <is>
-          <t>Más</t>
+          <t>No Pertenece a Medición</t>
         </is>
       </c>
       <c r="C10" s="2" t="inlineStr">
         <is>
-          <t>5,06</t>
+          <t>0,0</t>
         </is>
       </c>
       <c r="D10" s="2" t="inlineStr">
         <is>
-          <t>-3,27</t>
+          <t>0,0</t>
         </is>
       </c>
       <c r="E10" s="2" t="inlineStr">
         <is>
-          <t>30,75%</t>
+          <t>0,0</t>
         </is>
       </c>
       <c r="F10" s="2" t="inlineStr">
         <is>
-          <t>-18,35%</t>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="G10" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="H10" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
         </is>
       </c>
     </row>
@@ -781,50 +870,74 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>-1,13; 11,79</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>-9,01; 1,91</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>-6,54; 85,29</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>-41,14; 15,08</t>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="G11" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="H11" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
         </is>
       </c>
     </row>
     <row r="12">
-      <c r="A12" s="1" t="n"/>
+      <c r="A12" s="1" t="inlineStr">
+        <is>
+          <t>Intermedio</t>
+        </is>
+      </c>
       <c r="B12" s="3" t="inlineStr">
         <is>
-          <t>Igual</t>
+          <t>Más diferencia negativa</t>
         </is>
       </c>
       <c r="C12" s="2" t="inlineStr">
         <is>
-          <t>-5,77</t>
+          <t>4,45</t>
         </is>
       </c>
       <c r="D12" s="2" t="inlineStr">
         <is>
-          <t>-0,65</t>
+          <t>-3,4</t>
         </is>
       </c>
       <c r="E12" s="2" t="inlineStr">
         <is>
-          <t>-8,56%</t>
+          <t>3,95</t>
         </is>
       </c>
       <c r="F12" s="2" t="inlineStr">
         <is>
-          <t>-0,95%</t>
+          <t>26,46%</t>
+        </is>
+      </c>
+      <c r="G12" s="2" t="inlineStr">
+        <is>
+          <t>-18,62%</t>
+        </is>
+      </c>
+      <c r="H12" s="2" t="inlineStr">
+        <is>
+          <t>28,61%</t>
         </is>
       </c>
     </row>
@@ -837,22 +950,32 @@
       </c>
       <c r="C13" s="2" t="inlineStr">
         <is>
-          <t>-13,97; 2,38</t>
+          <t>-2,59; 11,07</t>
         </is>
       </c>
       <c r="D13" s="2" t="inlineStr">
         <is>
-          <t>-7,5; 6,44</t>
+          <t>-9,29; 1,39</t>
         </is>
       </c>
       <c r="E13" s="2" t="inlineStr">
         <is>
-          <t>-19,22; 3,77</t>
+          <t>-2,05; 9,81</t>
         </is>
       </c>
       <c r="F13" s="2" t="inlineStr">
         <is>
-          <t>-10,22; 10,15</t>
+          <t>-13,28; 81,57</t>
+        </is>
+      </c>
+      <c r="G13" s="2" t="inlineStr">
+        <is>
+          <t>-42,2; 7,62</t>
+        </is>
+      </c>
+      <c r="H13" s="2" t="inlineStr">
+        <is>
+          <t>-13,09; 90,43</t>
         </is>
       </c>
     </row>
@@ -860,27 +983,37 @@
       <c r="A14" s="1" t="n"/>
       <c r="B14" s="3" t="inlineStr">
         <is>
-          <t>Menos</t>
+          <t>Igual diferencia Cero</t>
         </is>
       </c>
       <c r="C14" s="2" t="inlineStr">
         <is>
-          <t>0,71</t>
+          <t>-5,44</t>
         </is>
       </c>
       <c r="D14" s="2" t="inlineStr">
         <is>
-          <t>3,92</t>
+          <t>-0,84</t>
         </is>
       </c>
       <c r="E14" s="2" t="inlineStr">
         <is>
-          <t>4,38%</t>
+          <t>-1,15</t>
         </is>
       </c>
       <c r="F14" s="2" t="inlineStr">
         <is>
-          <t>28,33%</t>
+          <t>-8,15%</t>
+        </is>
+      </c>
+      <c r="G14" s="2" t="inlineStr">
+        <is>
+          <t>-1,24%</t>
+        </is>
+      </c>
+      <c r="H14" s="2" t="inlineStr">
+        <is>
+          <t>-1,78%</t>
         </is>
       </c>
     </row>
@@ -893,54 +1026,70 @@
       </c>
       <c r="C15" s="2" t="inlineStr">
         <is>
-          <t>-5,88; 6,3</t>
+          <t>-13,53; 2,63</t>
         </is>
       </c>
       <c r="D15" s="2" t="inlineStr">
         <is>
-          <t>-2,14; 8,97</t>
+          <t>-6,82; 7,12</t>
         </is>
       </c>
       <c r="E15" s="2" t="inlineStr">
         <is>
-          <t>-28,97; 48,76</t>
+          <t>-9,42; 8,79</t>
         </is>
       </c>
       <c r="F15" s="2" t="inlineStr">
         <is>
-          <t>-12,5; 80,12</t>
+          <t>-19,01; 4,21</t>
+        </is>
+      </c>
+      <c r="G15" s="2" t="inlineStr">
+        <is>
+          <t>-9,59; 11,18</t>
+        </is>
+      </c>
+      <c r="H15" s="2" t="inlineStr">
+        <is>
+          <t>-13,58; 15,09</t>
         </is>
       </c>
     </row>
     <row r="16">
-      <c r="A16" s="1" t="inlineStr">
-        <is>
-          <t>Rural</t>
-        </is>
-      </c>
+      <c r="A16" s="1" t="n"/>
       <c r="B16" s="3" t="inlineStr">
         <is>
-          <t>Más</t>
+          <t>Menos Diferencia Positiva</t>
         </is>
       </c>
       <c r="C16" s="2" t="inlineStr">
         <is>
-          <t>2,75</t>
+          <t>0,99</t>
         </is>
       </c>
       <c r="D16" s="2" t="inlineStr">
         <is>
-          <t>-0,08</t>
+          <t>4,24</t>
         </is>
       </c>
       <c r="E16" s="2" t="inlineStr">
         <is>
-          <t>15,45%</t>
+          <t>-2,81</t>
         </is>
       </c>
       <c r="F16" s="2" t="inlineStr">
         <is>
-          <t>-0,53%</t>
+          <t>6,0%</t>
+        </is>
+      </c>
+      <c r="G16" s="2" t="inlineStr">
+        <is>
+          <t>30,44%</t>
+        </is>
+      </c>
+      <c r="H16" s="2" t="inlineStr">
+        <is>
+          <t>-12,9%</t>
         </is>
       </c>
     </row>
@@ -953,22 +1102,32 @@
       </c>
       <c r="C17" s="2" t="inlineStr">
         <is>
-          <t>-9,17; 15,31</t>
+          <t>-5,3; 6,84</t>
         </is>
       </c>
       <c r="D17" s="2" t="inlineStr">
         <is>
-          <t>-9,61; 9,14</t>
+          <t>-1,9; 9,88</t>
         </is>
       </c>
       <c r="E17" s="2" t="inlineStr">
         <is>
-          <t>-40,73; 137,86</t>
+          <t>-12,01; 4,49</t>
         </is>
       </c>
       <c r="F17" s="2" t="inlineStr">
         <is>
-          <t>-46,69; 87,27</t>
+          <t>-25,92; 50,02</t>
+        </is>
+      </c>
+      <c r="G17" s="2" t="inlineStr">
+        <is>
+          <t>-12,38; 84,14</t>
+        </is>
+      </c>
+      <c r="H17" s="2" t="inlineStr">
+        <is>
+          <t>-42,45; 25,27</t>
         </is>
       </c>
     </row>
@@ -976,27 +1135,37 @@
       <c r="A18" s="1" t="n"/>
       <c r="B18" s="3" t="inlineStr">
         <is>
-          <t>Igual</t>
+          <t>No Pertenece a Medición</t>
         </is>
       </c>
       <c r="C18" s="2" t="inlineStr">
         <is>
-          <t>-9,07</t>
+          <t>0,0</t>
         </is>
       </c>
       <c r="D18" s="2" t="inlineStr">
         <is>
-          <t>2,17</t>
+          <t>0,0</t>
         </is>
       </c>
       <c r="E18" s="2" t="inlineStr">
         <is>
-          <t>-13,66%</t>
+          <t>0,0</t>
         </is>
       </c>
       <c r="F18" s="2" t="inlineStr">
         <is>
-          <t>3,29%</t>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="G18" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="H18" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
         </is>
       </c>
     </row>
@@ -1009,50 +1178,74 @@
       </c>
       <c r="C19" s="2" t="inlineStr">
         <is>
-          <t>-23,5; 6,56</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="D19" s="2" t="inlineStr">
         <is>
-          <t>-10,44; 16,94</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="E19" s="2" t="inlineStr">
         <is>
-          <t>-31,79; 9,93</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="F19" s="2" t="inlineStr">
         <is>
-          <t>-13,6; 29,33</t>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="G19" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="H19" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
         </is>
       </c>
     </row>
     <row r="20">
-      <c r="A20" s="1" t="n"/>
+      <c r="A20" s="1" t="inlineStr">
+        <is>
+          <t>Rural</t>
+        </is>
+      </c>
       <c r="B20" s="3" t="inlineStr">
         <is>
-          <t>Menos</t>
+          <t>Más diferencia negativa</t>
         </is>
       </c>
       <c r="C20" s="2" t="inlineStr">
         <is>
-          <t>6,32</t>
+          <t>2,7</t>
         </is>
       </c>
       <c r="D20" s="2" t="inlineStr">
         <is>
-          <t>-2,08</t>
+          <t>-0,78</t>
         </is>
       </c>
       <c r="E20" s="2" t="inlineStr">
         <is>
-          <t>39,98%</t>
+          <t>-3,6</t>
         </is>
       </c>
       <c r="F20" s="2" t="inlineStr">
         <is>
-          <t>-11,27%</t>
+          <t>15,09%</t>
+        </is>
+      </c>
+      <c r="G20" s="2" t="inlineStr">
+        <is>
+          <t>-4,87%</t>
+        </is>
+      </c>
+      <c r="H20" s="2" t="inlineStr">
+        <is>
+          <t>-19,6%</t>
         </is>
       </c>
     </row>
@@ -1065,54 +1258,70 @@
       </c>
       <c r="C21" s="2" t="inlineStr">
         <is>
-          <t>-6,12; 18,23</t>
+          <t>-11,24; 14,45</t>
         </is>
       </c>
       <c r="D21" s="2" t="inlineStr">
         <is>
-          <t>-15,23; 8,45</t>
+          <t>-10,62; 8,07</t>
         </is>
       </c>
       <c r="E21" s="2" t="inlineStr">
         <is>
-          <t>-30,81; 176,18</t>
+          <t>-23,77; 9,32</t>
         </is>
       </c>
       <c r="F21" s="2" t="inlineStr">
         <is>
-          <t>-55,69; 76,71</t>
+          <t>-41,96; 130,88</t>
+        </is>
+      </c>
+      <c r="G21" s="2" t="inlineStr">
+        <is>
+          <t>-49,76; 79,82</t>
+        </is>
+      </c>
+      <c r="H21" s="2" t="inlineStr">
+        <is>
+          <t>-72,56; 122,59</t>
         </is>
       </c>
     </row>
     <row r="22">
-      <c r="A22" s="1" t="inlineStr">
-        <is>
-          <t>Total</t>
-        </is>
-      </c>
+      <c r="A22" s="1" t="n"/>
       <c r="B22" s="3" t="inlineStr">
         <is>
-          <t>Más</t>
+          <t>Igual diferencia Cero</t>
         </is>
       </c>
       <c r="C22" s="2" t="inlineStr">
         <is>
-          <t>-0,99</t>
+          <t>-9,52</t>
         </is>
       </c>
       <c r="D22" s="2" t="inlineStr">
         <is>
-          <t>-3,11</t>
+          <t>3,25</t>
         </is>
       </c>
       <c r="E22" s="2" t="inlineStr">
         <is>
-          <t>-4,89%</t>
+          <t>18,24</t>
         </is>
       </c>
       <c r="F22" s="2" t="inlineStr">
         <is>
-          <t>-19,23%</t>
+          <t>-14,32%</t>
+        </is>
+      </c>
+      <c r="G22" s="2" t="inlineStr">
+        <is>
+          <t>5,02%</t>
+        </is>
+      </c>
+      <c r="H22" s="2" t="inlineStr">
+        <is>
+          <t>34,2%</t>
         </is>
       </c>
     </row>
@@ -1125,22 +1334,32 @@
       </c>
       <c r="C23" s="2" t="inlineStr">
         <is>
-          <t>-5,4; 3,08</t>
+          <t>-24,68; 5,71</t>
         </is>
       </c>
       <c r="D23" s="2" t="inlineStr">
         <is>
-          <t>-6,29; -0,1</t>
+          <t>-8,22; 17,89</t>
         </is>
       </c>
       <c r="E23" s="2" t="inlineStr">
         <is>
-          <t>-22,91; 16,94</t>
+          <t>1,6; 41,69</t>
         </is>
       </c>
       <c r="F23" s="2" t="inlineStr">
         <is>
-          <t>-34,61; -0,56</t>
+          <t>-33,04; 9,83</t>
+        </is>
+      </c>
+      <c r="G23" s="2" t="inlineStr">
+        <is>
+          <t>-11,33; 31,85</t>
+        </is>
+      </c>
+      <c r="H23" s="2" t="inlineStr">
+        <is>
+          <t>1,1; 120,18</t>
         </is>
       </c>
     </row>
@@ -1148,27 +1367,37 @@
       <c r="A24" s="1" t="n"/>
       <c r="B24" s="3" t="inlineStr">
         <is>
-          <t>Igual</t>
+          <t>Menos Diferencia Positiva</t>
         </is>
       </c>
       <c r="C24" s="2" t="inlineStr">
         <is>
-          <t>1,57</t>
+          <t>6,81</t>
         </is>
       </c>
       <c r="D24" s="2" t="inlineStr">
         <is>
-          <t>-0,2</t>
+          <t>-2,47</t>
         </is>
       </c>
       <c r="E24" s="2" t="inlineStr">
         <is>
-          <t>2,49%</t>
+          <t>-14,64</t>
         </is>
       </c>
       <c r="F24" s="2" t="inlineStr">
         <is>
-          <t>-0,29%</t>
+          <t>43,54%</t>
+        </is>
+      </c>
+      <c r="G24" s="2" t="inlineStr">
+        <is>
+          <t>-12,86%</t>
+        </is>
+      </c>
+      <c r="H24" s="2" t="inlineStr">
+        <is>
+          <t>-51,73%</t>
         </is>
       </c>
     </row>
@@ -1181,22 +1410,32 @@
       </c>
       <c r="C25" s="2" t="inlineStr">
         <is>
-          <t>-3,4; 6,7</t>
+          <t>-4,36; 17,65</t>
         </is>
       </c>
       <c r="D25" s="2" t="inlineStr">
         <is>
-          <t>-4,52; 4,76</t>
+          <t>-16,84; 6,99</t>
         </is>
       </c>
       <c r="E25" s="2" t="inlineStr">
         <is>
-          <t>-5,14; 11,1</t>
+          <t>-45,88; 1,57</t>
         </is>
       </c>
       <c r="F25" s="2" t="inlineStr">
         <is>
-          <t>-6,37; 7,26</t>
+          <t>-23,91; 183,5</t>
+        </is>
+      </c>
+      <c r="G25" s="2" t="inlineStr">
+        <is>
+          <t>-57,57; 54,19</t>
+        </is>
+      </c>
+      <c r="H25" s="2" t="inlineStr">
+        <is>
+          <t>-84,54; 11,68</t>
         </is>
       </c>
     </row>
@@ -1204,27 +1443,37 @@
       <c r="A26" s="1" t="n"/>
       <c r="B26" s="3" t="inlineStr">
         <is>
-          <t>Menos</t>
+          <t>No Pertenece a Medición</t>
         </is>
       </c>
       <c r="C26" s="2" t="inlineStr">
         <is>
-          <t>-0,58</t>
+          <t>0,0</t>
         </is>
       </c>
       <c r="D26" s="2" t="inlineStr">
         <is>
-          <t>3,31</t>
+          <t>0,0</t>
         </is>
       </c>
       <c r="E26" s="2" t="inlineStr">
         <is>
-          <t>-3,55%</t>
+          <t>0,0</t>
         </is>
       </c>
       <c r="F26" s="2" t="inlineStr">
         <is>
-          <t>21,62%</t>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="G26" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="H26" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
         </is>
       </c>
     </row>
@@ -1237,34 +1486,359 @@
       </c>
       <c r="C27" s="2" t="inlineStr">
         <is>
-          <t>-4,58; 2,98</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="D27" s="2" t="inlineStr">
         <is>
-          <t>-1,15; 7,34</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="E27" s="2" t="inlineStr">
         <is>
-          <t>-24,64; 20,96</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="F27" s="2" t="inlineStr">
         <is>
-          <t>-6,41; 54,72</t>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="G27" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="H27" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" s="1" t="inlineStr">
+        <is>
+          <t>Total</t>
+        </is>
+      </c>
+      <c r="B28" s="3" t="inlineStr">
+        <is>
+          <t>Más diferencia negativa</t>
+        </is>
+      </c>
+      <c r="C28" s="2" t="inlineStr">
+        <is>
+          <t>-1,3</t>
+        </is>
+      </c>
+      <c r="D28" s="2" t="inlineStr">
+        <is>
+          <t>-3,55</t>
+        </is>
+      </c>
+      <c r="E28" s="2" t="inlineStr">
+        <is>
+          <t>3,11</t>
+        </is>
+      </c>
+      <c r="F28" s="2" t="inlineStr">
+        <is>
+          <t>-6,35%</t>
+        </is>
+      </c>
+      <c r="G28" s="2" t="inlineStr">
+        <is>
+          <t>-21,34%</t>
+        </is>
+      </c>
+      <c r="H28" s="2" t="inlineStr">
+        <is>
+          <t>22,42%</t>
+        </is>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" s="1" t="n"/>
+      <c r="B29" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C29" s="2" t="inlineStr">
+        <is>
+          <t>-5,84; 2,78</t>
+        </is>
+      </c>
+      <c r="D29" s="2" t="inlineStr">
+        <is>
+          <t>-6,79; -0,35</t>
+        </is>
+      </c>
+      <c r="E29" s="2" t="inlineStr">
+        <is>
+          <t>-0,85; 6,86</t>
+        </is>
+      </c>
+      <c r="F29" s="2" t="inlineStr">
+        <is>
+          <t>-25,02; 16,04</t>
+        </is>
+      </c>
+      <c r="G29" s="2" t="inlineStr">
+        <is>
+          <t>-36,47; -2,28</t>
+        </is>
+      </c>
+      <c r="H29" s="2" t="inlineStr">
+        <is>
+          <t>-5,24; 58,1</t>
+        </is>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" s="1" t="n"/>
+      <c r="B30" s="3" t="inlineStr">
+        <is>
+          <t>Igual diferencia Cero</t>
+        </is>
+      </c>
+      <c r="C30" s="2" t="inlineStr">
+        <is>
+          <t>2,49</t>
+        </is>
+      </c>
+      <c r="D30" s="2" t="inlineStr">
+        <is>
+          <t>0,55</t>
+        </is>
+      </c>
+      <c r="E30" s="2" t="inlineStr">
+        <is>
+          <t>1,1</t>
+        </is>
+      </c>
+      <c r="F30" s="2" t="inlineStr">
+        <is>
+          <t>3,97%</t>
+        </is>
+      </c>
+      <c r="G30" s="2" t="inlineStr">
+        <is>
+          <t>0,81%</t>
+        </is>
+      </c>
+      <c r="H30" s="2" t="inlineStr">
+        <is>
+          <t>1,72%</t>
+        </is>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" s="1" t="n"/>
+      <c r="B31" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C31" s="2" t="inlineStr">
+        <is>
+          <t>-2,94; 7,37</t>
+        </is>
+      </c>
+      <c r="D31" s="2" t="inlineStr">
+        <is>
+          <t>-3,72; 5,19</t>
+        </is>
+      </c>
+      <c r="E31" s="2" t="inlineStr">
+        <is>
+          <t>-4,69; 6,69</t>
+        </is>
+      </c>
+      <c r="F31" s="2" t="inlineStr">
+        <is>
+          <t>-4,46; 12,38</t>
+        </is>
+      </c>
+      <c r="G31" s="2" t="inlineStr">
+        <is>
+          <t>-5,29; 8,07</t>
+        </is>
+      </c>
+      <c r="H31" s="2" t="inlineStr">
+        <is>
+          <t>-6,78; 11,0</t>
+        </is>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" s="1" t="n"/>
+      <c r="B32" s="3" t="inlineStr">
+        <is>
+          <t>Menos Diferencia Positiva</t>
+        </is>
+      </c>
+      <c r="C32" s="2" t="inlineStr">
+        <is>
+          <t>-1,19</t>
+        </is>
+      </c>
+      <c r="D32" s="2" t="inlineStr">
+        <is>
+          <t>3,0</t>
+        </is>
+      </c>
+      <c r="E32" s="2" t="inlineStr">
+        <is>
+          <t>-4,22</t>
+        </is>
+      </c>
+      <c r="F32" s="2" t="inlineStr">
+        <is>
+          <t>-7,01%</t>
+        </is>
+      </c>
+      <c r="G32" s="2" t="inlineStr">
+        <is>
+          <t>19,42%</t>
+        </is>
+      </c>
+      <c r="H32" s="2" t="inlineStr">
+        <is>
+          <t>-19,35%</t>
+        </is>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" s="1" t="n"/>
+      <c r="B33" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C33" s="2" t="inlineStr">
+        <is>
+          <t>-5,18; 2,62</t>
+        </is>
+      </c>
+      <c r="D33" s="2" t="inlineStr">
+        <is>
+          <t>-1,76; 6,46</t>
+        </is>
+      </c>
+      <c r="E33" s="2" t="inlineStr">
+        <is>
+          <t>-9,56; 0,49</t>
+        </is>
+      </c>
+      <c r="F33" s="2" t="inlineStr">
+        <is>
+          <t>-25,32; 17,9</t>
+        </is>
+      </c>
+      <c r="G33" s="2" t="inlineStr">
+        <is>
+          <t>-9,22; 48,54</t>
+        </is>
+      </c>
+      <c r="H33" s="2" t="inlineStr">
+        <is>
+          <t>-36,7; 3,08</t>
+        </is>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" s="1" t="n"/>
+      <c r="B34" s="3" t="inlineStr">
+        <is>
+          <t>No Pertenece a Medición</t>
+        </is>
+      </c>
+      <c r="C34" s="2" t="inlineStr">
+        <is>
+          <t>0,0</t>
+        </is>
+      </c>
+      <c r="D34" s="2" t="inlineStr">
+        <is>
+          <t>0,0</t>
+        </is>
+      </c>
+      <c r="E34" s="2" t="inlineStr">
+        <is>
+          <t>0,0</t>
+        </is>
+      </c>
+      <c r="F34" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="G34" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="H34" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" s="1" t="n"/>
+      <c r="B35" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C35" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="D35" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="E35" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="F35" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="G35" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="H35" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" t="inlineStr">
+        <is>
+          <t>Fuente: Encuesta Sanitaria y Social de Andalucía (Panel 1 en Medición 4)</t>
         </is>
       </c>
     </row>
   </sheetData>
   <mergeCells count="7">
-    <mergeCell ref="A22:A27"/>
-    <mergeCell ref="A4:A9"/>
-    <mergeCell ref="C1:D1"/>
-    <mergeCell ref="E1:F1"/>
-    <mergeCell ref="A16:A21"/>
-    <mergeCell ref="A10:A15"/>
+    <mergeCell ref="C1:E1"/>
+    <mergeCell ref="A4:A11"/>
+    <mergeCell ref="A12:A19"/>
+    <mergeCell ref="A20:A27"/>
+    <mergeCell ref="F1:H1"/>
     <mergeCell ref="A1:B2"/>
+    <mergeCell ref="A28:A35"/>
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
